--- a/src/Obyvatel.xlsx
+++ b/src/Obyvatel.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="UKAZATELE" sheetId="2" r:id="rId2"/>
-    <sheet name="METAINFORMACE" sheetId="3" r:id="rId3"/>
+    <sheet name="src" sheetId="4" r:id="rId1"/>
+    <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="UKAZATELE" sheetId="2" r:id="rId3"/>
+    <sheet name="METAINFORMACE" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="249">
   <si>
     <t>Data z Veřejné databáze ČSU</t>
   </si>
@@ -757,6 +758,18 @@
   </si>
   <si>
     <t>Český statistický úřad, Veřejná databáze</t>
+  </si>
+  <si>
+    <t>okres</t>
+  </si>
+  <si>
+    <t>obyvatel</t>
+  </si>
+  <si>
+    <t>podil_65plus</t>
+  </si>
+  <si>
+    <t>podil_14minus</t>
   </si>
 </sst>
 </file>
@@ -955,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -993,6 +1006,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1369,9 +1384,1454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>DATA!B9</f>
+        <v>Hlavní město Praha</v>
+      </c>
+      <c r="B2">
+        <f>DATA!C9</f>
+        <v>1267449</v>
+      </c>
+      <c r="C2" s="16">
+        <f>100*DATA!D9/DATA!C9</f>
+        <v>14.898587635478824</v>
+      </c>
+      <c r="D2">
+        <f>100*DATA!F9/DATA!C9</f>
+        <v>18.437428251550951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="str">
+        <f>DATA!B11</f>
+        <v>Benešov</v>
+      </c>
+      <c r="B3" s="15">
+        <f>DATA!C11</f>
+        <v>97085</v>
+      </c>
+      <c r="C3" s="16">
+        <f>100*DATA!D11/DATA!C11</f>
+        <v>16.003502085801102</v>
+      </c>
+      <c r="D3" s="15">
+        <f>100*DATA!F11/DATA!C11</f>
+        <v>18.670237420816811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="str">
+        <f>DATA!B12</f>
+        <v>Beroun</v>
+      </c>
+      <c r="B4" s="15">
+        <f>DATA!C12</f>
+        <v>90168</v>
+      </c>
+      <c r="C4" s="16">
+        <f>100*DATA!D12/DATA!C12</f>
+        <v>16.935054564812351</v>
+      </c>
+      <c r="D4" s="15">
+        <f>100*DATA!F12/DATA!C12</f>
+        <v>17.454085706680864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="str">
+        <f>DATA!B13</f>
+        <v>Kladno</v>
+      </c>
+      <c r="B5" s="15">
+        <f>DATA!C13</f>
+        <v>162256</v>
+      </c>
+      <c r="C5" s="16">
+        <f>100*DATA!D13/DATA!C13</f>
+        <v>16.327901587614633</v>
+      </c>
+      <c r="D5" s="15">
+        <f>100*DATA!F13/DATA!C13</f>
+        <v>17.897643230450647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="str">
+        <f>DATA!B14</f>
+        <v>Kolín</v>
+      </c>
+      <c r="B6" s="15">
+        <f>DATA!C14</f>
+        <v>98815</v>
+      </c>
+      <c r="C6" s="16">
+        <f>100*DATA!D14/DATA!C14</f>
+        <v>16.258665182411576</v>
+      </c>
+      <c r="D6" s="15">
+        <f>100*DATA!F14/DATA!C14</f>
+        <v>18.419268329707027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="str">
+        <f>DATA!B15</f>
+        <v>Kutná Hora</v>
+      </c>
+      <c r="B7" s="15">
+        <f>DATA!C15</f>
+        <v>74495</v>
+      </c>
+      <c r="C7" s="16">
+        <f>100*DATA!D15/DATA!C15</f>
+        <v>14.670783274045238</v>
+      </c>
+      <c r="D7" s="15">
+        <f>100*DATA!F15/DATA!C15</f>
+        <v>19.177125981609503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="str">
+        <f>DATA!B16</f>
+        <v>Mělník</v>
+      </c>
+      <c r="B8" s="15">
+        <f>DATA!C16</f>
+        <v>105594</v>
+      </c>
+      <c r="C8" s="16">
+        <f>100*DATA!D16/DATA!C16</f>
+        <v>16.417599484819213</v>
+      </c>
+      <c r="D8" s="15">
+        <f>100*DATA!F16/DATA!C16</f>
+        <v>17.337159308294034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="str">
+        <f>DATA!B17</f>
+        <v>Mladá Boleslav</v>
+      </c>
+      <c r="B9" s="15">
+        <f>DATA!C17</f>
+        <v>126286</v>
+      </c>
+      <c r="C9" s="16">
+        <f>100*DATA!D17/DATA!C17</f>
+        <v>15.985144829989073</v>
+      </c>
+      <c r="D9" s="15">
+        <f>100*DATA!F17/DATA!C17</f>
+        <v>16.97337788828532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="str">
+        <f>DATA!B18</f>
+        <v>Nymburk</v>
+      </c>
+      <c r="B10" s="15">
+        <f>DATA!C18</f>
+        <v>97339</v>
+      </c>
+      <c r="C10" s="16">
+        <f>100*DATA!D18/DATA!C18</f>
+        <v>17.131879308396428</v>
+      </c>
+      <c r="D10" s="15">
+        <f>100*DATA!F18/DATA!C18</f>
+        <v>17.418506456815869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="str">
+        <f>DATA!B19</f>
+        <v>Praha-východ</v>
+      </c>
+      <c r="B11" s="15">
+        <f>DATA!C19</f>
+        <v>167851</v>
+      </c>
+      <c r="C11" s="16">
+        <f>100*DATA!D19/DATA!C19</f>
+        <v>20.349000005957667</v>
+      </c>
+      <c r="D11" s="15">
+        <f>100*DATA!F19/DATA!C19</f>
+        <v>14.212605227255125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="str">
+        <f>DATA!B20</f>
+        <v>Praha-západ</v>
+      </c>
+      <c r="B12" s="15">
+        <f>DATA!C20</f>
+        <v>137523</v>
+      </c>
+      <c r="C12" s="16">
+        <f>100*DATA!D20/DATA!C20</f>
+        <v>20.33987042167492</v>
+      </c>
+      <c r="D12" s="15">
+        <f>100*DATA!F20/DATA!C20</f>
+        <v>14.551747707656174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="str">
+        <f>DATA!B21</f>
+        <v>Příbram</v>
+      </c>
+      <c r="B13" s="15">
+        <f>DATA!C21</f>
+        <v>114206</v>
+      </c>
+      <c r="C13" s="16">
+        <f>100*DATA!D21/DATA!C21</f>
+        <v>15.085897413445878</v>
+      </c>
+      <c r="D13" s="15">
+        <f>100*DATA!F21/DATA!C21</f>
+        <v>18.499028072080275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="str">
+        <f>DATA!B22</f>
+        <v>Rakovník</v>
+      </c>
+      <c r="B14" s="15">
+        <f>DATA!C22</f>
+        <v>55258</v>
+      </c>
+      <c r="C14" s="16">
+        <f>100*DATA!D22/DATA!C22</f>
+        <v>15.11636324152159</v>
+      </c>
+      <c r="D14" s="15">
+        <f>100*DATA!F22/DATA!C22</f>
+        <v>18.471533533605992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="str">
+        <f>DATA!B24</f>
+        <v>České Budějovice</v>
+      </c>
+      <c r="B15" s="15">
+        <f>DATA!C24</f>
+        <v>190844</v>
+      </c>
+      <c r="C15" s="16">
+        <f>100*DATA!D24/DATA!C24</f>
+        <v>15.821299071492946</v>
+      </c>
+      <c r="D15" s="15">
+        <f>100*DATA!F24/DATA!C24</f>
+        <v>17.764247238582296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="str">
+        <f>DATA!B25</f>
+        <v>Český Krumlov</v>
+      </c>
+      <c r="B16" s="15">
+        <f>DATA!C25</f>
+        <v>61126</v>
+      </c>
+      <c r="C16" s="16">
+        <f>100*DATA!D25/DATA!C25</f>
+        <v>16.335111082027289</v>
+      </c>
+      <c r="D16" s="15">
+        <f>100*DATA!F25/DATA!C25</f>
+        <v>16.320387396525209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="str">
+        <f>DATA!B26</f>
+        <v>Jindřichův Hradec</v>
+      </c>
+      <c r="B17" s="15">
+        <f>DATA!C26</f>
+        <v>91359</v>
+      </c>
+      <c r="C17" s="16">
+        <f>100*DATA!D26/DATA!C26</f>
+        <v>14.782342188509068</v>
+      </c>
+      <c r="D17" s="15">
+        <f>100*DATA!F26/DATA!C26</f>
+        <v>19.253713372519403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="str">
+        <f>DATA!B27</f>
+        <v>Písek</v>
+      </c>
+      <c r="B18" s="15">
+        <f>DATA!C27</f>
+        <v>70741</v>
+      </c>
+      <c r="C18" s="16">
+        <f>100*DATA!D27/DATA!C27</f>
+        <v>14.739684200110261</v>
+      </c>
+      <c r="D18" s="15">
+        <f>100*DATA!F27/DATA!C27</f>
+        <v>20.165109342531206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="str">
+        <f>DATA!B28</f>
+        <v>Prachatice</v>
+      </c>
+      <c r="B19" s="15">
+        <f>DATA!C28</f>
+        <v>50712</v>
+      </c>
+      <c r="C19" s="16">
+        <f>100*DATA!D28/DATA!C28</f>
+        <v>15.426329073986434</v>
+      </c>
+      <c r="D19" s="15">
+        <f>100*DATA!F28/DATA!C28</f>
+        <v>17.526423726139768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="str">
+        <f>DATA!B29</f>
+        <v>Strakonice</v>
+      </c>
+      <c r="B20" s="15">
+        <f>DATA!C29</f>
+        <v>70683</v>
+      </c>
+      <c r="C20" s="16">
+        <f>100*DATA!D29/DATA!C29</f>
+        <v>15.133766252139836</v>
+      </c>
+      <c r="D20" s="15">
+        <f>100*DATA!F29/DATA!C29</f>
+        <v>18.868752033728054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="str">
+        <f>DATA!B30</f>
+        <v>Tábor</v>
+      </c>
+      <c r="B21" s="15">
+        <f>DATA!C30</f>
+        <v>102369</v>
+      </c>
+      <c r="C21" s="16">
+        <f>100*DATA!D30/DATA!C30</f>
+        <v>14.981097793277261</v>
+      </c>
+      <c r="D21" s="15">
+        <f>100*DATA!F30/DATA!C30</f>
+        <v>19.576238900448377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="str">
+        <f>DATA!B32</f>
+        <v>Domažlice</v>
+      </c>
+      <c r="B22" s="15">
+        <f>DATA!C32</f>
+        <v>61265</v>
+      </c>
+      <c r="C22" s="16">
+        <f>100*DATA!D32/DATA!C32</f>
+        <v>15.584754753937812</v>
+      </c>
+      <c r="D22" s="15">
+        <f>100*DATA!F32/DATA!C32</f>
+        <v>17.97763812943769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="str">
+        <f>DATA!B33</f>
+        <v>Klatovy</v>
+      </c>
+      <c r="B23" s="15">
+        <f>DATA!C33</f>
+        <v>86617</v>
+      </c>
+      <c r="C23" s="16">
+        <f>100*DATA!D33/DATA!C33</f>
+        <v>14.642622118059965</v>
+      </c>
+      <c r="D23" s="15">
+        <f>100*DATA!F33/DATA!C33</f>
+        <v>19.69128462080192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="str">
+        <f>DATA!B34</f>
+        <v>Plzeň-město</v>
+      </c>
+      <c r="B24" s="15">
+        <f>DATA!C34</f>
+        <v>188190</v>
+      </c>
+      <c r="C24" s="16">
+        <f>100*DATA!D34/DATA!C34</f>
+        <v>14.602795047558319</v>
+      </c>
+      <c r="D24" s="15">
+        <f>100*DATA!F34/DATA!C34</f>
+        <v>19.91604229767788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="str">
+        <f>DATA!B35</f>
+        <v>Plzeň-jih</v>
+      </c>
+      <c r="B25" s="15">
+        <f>DATA!C35</f>
+        <v>62262</v>
+      </c>
+      <c r="C25" s="16">
+        <f>100*DATA!D35/DATA!C35</f>
+        <v>14.985063120362339</v>
+      </c>
+      <c r="D25" s="15">
+        <f>100*DATA!F35/DATA!C35</f>
+        <v>18.695191288426326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="str">
+        <f>DATA!B36</f>
+        <v>Plzeň-sever</v>
+      </c>
+      <c r="B26" s="15">
+        <f>DATA!C36</f>
+        <v>77478</v>
+      </c>
+      <c r="C26" s="16">
+        <f>100*DATA!D36/DATA!C36</f>
+        <v>15.844497792921862</v>
+      </c>
+      <c r="D26" s="15">
+        <f>100*DATA!F36/DATA!C36</f>
+        <v>17.382999044890163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="str">
+        <f>DATA!B37</f>
+        <v>Rokycany</v>
+      </c>
+      <c r="B27" s="15">
+        <f>DATA!C37</f>
+        <v>47967</v>
+      </c>
+      <c r="C27" s="16">
+        <f>100*DATA!D37/DATA!C37</f>
+        <v>14.685096003502409</v>
+      </c>
+      <c r="D27" s="15">
+        <f>100*DATA!F37/DATA!C37</f>
+        <v>19.13607271665937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="str">
+        <f>DATA!B38</f>
+        <v>Tachov</v>
+      </c>
+      <c r="B28" s="15">
+        <f>DATA!C38</f>
+        <v>52837</v>
+      </c>
+      <c r="C28" s="16">
+        <f>100*DATA!D38/DATA!C38</f>
+        <v>15.209039120313417</v>
+      </c>
+      <c r="D28" s="15">
+        <f>100*DATA!F38/DATA!C38</f>
+        <v>15.986903117133826</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="str">
+        <f>DATA!B40</f>
+        <v>Cheb</v>
+      </c>
+      <c r="B29" s="15">
+        <f>DATA!C40</f>
+        <v>91851</v>
+      </c>
+      <c r="C29" s="16">
+        <f>100*DATA!D40/DATA!C40</f>
+        <v>15.42824792326703</v>
+      </c>
+      <c r="D29" s="15">
+        <f>100*DATA!F40/DATA!C40</f>
+        <v>17.881133575029125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="str">
+        <f>DATA!B41</f>
+        <v>Karlovy Vary</v>
+      </c>
+      <c r="B30" s="15">
+        <f>DATA!C41</f>
+        <v>116364</v>
+      </c>
+      <c r="C30" s="16">
+        <f>100*DATA!D41/DATA!C41</f>
+        <v>14.248392973771956</v>
+      </c>
+      <c r="D30" s="15">
+        <f>100*DATA!F41/DATA!C41</f>
+        <v>19.135643326114607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="str">
+        <f>DATA!B42</f>
+        <v>Sokolov</v>
+      </c>
+      <c r="B31" s="15">
+        <f>DATA!C42</f>
+        <v>89613</v>
+      </c>
+      <c r="C31" s="16">
+        <f>100*DATA!D42/DATA!C42</f>
+        <v>15.210962695144678</v>
+      </c>
+      <c r="D31" s="15">
+        <f>100*DATA!F42/DATA!C42</f>
+        <v>17.191702096793993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="str">
+        <f>DATA!B44</f>
+        <v>Děčín</v>
+      </c>
+      <c r="B32" s="15">
+        <f>DATA!C44</f>
+        <v>131313</v>
+      </c>
+      <c r="C32" s="16">
+        <f>100*DATA!D44/DATA!C44</f>
+        <v>16.101985332754563</v>
+      </c>
+      <c r="D32" s="15">
+        <f>100*DATA!F44/DATA!C44</f>
+        <v>18.567849337080105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="str">
+        <f>DATA!B45</f>
+        <v>Chomutov</v>
+      </c>
+      <c r="B33" s="15">
+        <f>DATA!C45</f>
+        <v>124335</v>
+      </c>
+      <c r="C33" s="16">
+        <f>100*DATA!D45/DATA!C45</f>
+        <v>15.640809104435597</v>
+      </c>
+      <c r="D33" s="15">
+        <f>100*DATA!F45/DATA!C45</f>
+        <v>16.188522942051716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="str">
+        <f>DATA!B46</f>
+        <v>Litoměřice</v>
+      </c>
+      <c r="B34" s="15">
+        <f>DATA!C46</f>
+        <v>119162</v>
+      </c>
+      <c r="C34" s="16">
+        <f>100*DATA!D46/DATA!C46</f>
+        <v>15.836424363471577</v>
+      </c>
+      <c r="D34" s="15">
+        <f>100*DATA!F46/DATA!C46</f>
+        <v>18.295261912354611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="str">
+        <f>DATA!B47</f>
+        <v>Louny</v>
+      </c>
+      <c r="B35" s="15">
+        <f>DATA!C47</f>
+        <v>86399</v>
+      </c>
+      <c r="C35" s="16">
+        <f>100*DATA!D47/DATA!C47</f>
+        <v>15.931897359923147</v>
+      </c>
+      <c r="D35" s="15">
+        <f>100*DATA!F47/DATA!C47</f>
+        <v>17.394877255523792</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="str">
+        <f>DATA!B48</f>
+        <v>Most</v>
+      </c>
+      <c r="B36" s="15">
+        <f>DATA!C48</f>
+        <v>113371</v>
+      </c>
+      <c r="C36" s="16">
+        <f>100*DATA!D48/DATA!C48</f>
+        <v>15.422815358424995</v>
+      </c>
+      <c r="D36" s="15">
+        <f>100*DATA!F48/DATA!C48</f>
+        <v>17.353644230005909</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="str">
+        <f>DATA!B49</f>
+        <v>Teplice</v>
+      </c>
+      <c r="B37" s="15">
+        <f>DATA!C49</f>
+        <v>128734</v>
+      </c>
+      <c r="C37" s="16">
+        <f>100*DATA!D49/DATA!C49</f>
+        <v>15.541348827815495</v>
+      </c>
+      <c r="D37" s="15">
+        <f>100*DATA!F49/DATA!C49</f>
+        <v>17.723367564124473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="str">
+        <f>DATA!B50</f>
+        <v>Ústí nad Labem</v>
+      </c>
+      <c r="B38" s="15">
+        <f>DATA!C50</f>
+        <v>119512</v>
+      </c>
+      <c r="C38" s="16">
+        <f>100*DATA!D50/DATA!C50</f>
+        <v>16.311332753196332</v>
+      </c>
+      <c r="D38" s="15">
+        <f>100*DATA!F50/DATA!C50</f>
+        <v>18.103621393667581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="str">
+        <f>DATA!B52</f>
+        <v>Česká Lípa</v>
+      </c>
+      <c r="B39" s="15">
+        <f>DATA!C52</f>
+        <v>103021</v>
+      </c>
+      <c r="C39" s="16">
+        <f>100*DATA!D52/DATA!C52</f>
+        <v>15.793867269779948</v>
+      </c>
+      <c r="D39" s="15">
+        <f>100*DATA!F52/DATA!C52</f>
+        <v>16.861610739557953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="str">
+        <f>DATA!B53</f>
+        <v>Jablonec nad Nisou</v>
+      </c>
+      <c r="B40" s="15">
+        <f>DATA!C53</f>
+        <v>89850</v>
+      </c>
+      <c r="C40" s="16">
+        <f>100*DATA!D53/DATA!C53</f>
+        <v>15.598219254312744</v>
+      </c>
+      <c r="D40" s="15">
+        <f>100*DATA!F53/DATA!C53</f>
+        <v>19.028380634390651</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="str">
+        <f>DATA!B54</f>
+        <v>Liberec</v>
+      </c>
+      <c r="B41" s="15">
+        <f>DATA!C54</f>
+        <v>172681</v>
+      </c>
+      <c r="C41" s="16">
+        <f>100*DATA!D54/DATA!C54</f>
+        <v>16.248458139575288</v>
+      </c>
+      <c r="D41" s="15">
+        <f>100*DATA!F54/DATA!C54</f>
+        <v>18.061048986281062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="str">
+        <f>DATA!B55</f>
+        <v>Semily</v>
+      </c>
+      <c r="B42" s="15">
+        <f>DATA!C55</f>
+        <v>74087</v>
+      </c>
+      <c r="C42" s="16">
+        <f>100*DATA!D55/DATA!C55</f>
+        <v>14.931094524005561</v>
+      </c>
+      <c r="D42" s="15">
+        <f>100*DATA!F55/DATA!C55</f>
+        <v>19.823990713620475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="str">
+        <f>DATA!B57</f>
+        <v>Hradec Králové</v>
+      </c>
+      <c r="B43" s="15">
+        <f>DATA!C57</f>
+        <v>163159</v>
+      </c>
+      <c r="C43" s="16">
+        <f>100*DATA!D57/DATA!C57</f>
+        <v>14.974963072830796</v>
+      </c>
+      <c r="D43" s="15">
+        <f>100*DATA!F57/DATA!C57</f>
+        <v>20.194411586244094</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="str">
+        <f>DATA!B58</f>
+        <v>Jičín</v>
+      </c>
+      <c r="B44" s="15">
+        <f>DATA!C58</f>
+        <v>79490</v>
+      </c>
+      <c r="C44" s="16">
+        <f>100*DATA!D58/DATA!C58</f>
+        <v>15.074852182664486</v>
+      </c>
+      <c r="D44" s="15">
+        <f>100*DATA!F58/DATA!C58</f>
+        <v>19.16844886149201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="str">
+        <f>DATA!B59</f>
+        <v>Náchod</v>
+      </c>
+      <c r="B45" s="15">
+        <f>DATA!C59</f>
+        <v>110869</v>
+      </c>
+      <c r="C45" s="16">
+        <f>100*DATA!D59/DATA!C59</f>
+        <v>15.33250953828392</v>
+      </c>
+      <c r="D45" s="15">
+        <f>100*DATA!F59/DATA!C59</f>
+        <v>19.778296908964634</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="str">
+        <f>DATA!B60</f>
+        <v>Rychnov nad Kněžnou</v>
+      </c>
+      <c r="B46" s="15">
+        <f>DATA!C60</f>
+        <v>78861</v>
+      </c>
+      <c r="C46" s="16">
+        <f>100*DATA!D60/DATA!C60</f>
+        <v>15.603403456714979</v>
+      </c>
+      <c r="D46" s="15">
+        <f>100*DATA!F60/DATA!C60</f>
+        <v>18.744373010740418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="str">
+        <f>DATA!B61</f>
+        <v>Trutnov</v>
+      </c>
+      <c r="B47" s="15">
+        <f>DATA!C61</f>
+        <v>119042</v>
+      </c>
+      <c r="C47" s="16">
+        <f>100*DATA!D61/DATA!C61</f>
+        <v>14.983787234757481</v>
+      </c>
+      <c r="D47" s="15">
+        <f>100*DATA!F61/DATA!C61</f>
+        <v>19.448597973824363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="str">
+        <f>DATA!B63</f>
+        <v>Chrudim</v>
+      </c>
+      <c r="B48" s="15">
+        <f>DATA!C63</f>
+        <v>103945</v>
+      </c>
+      <c r="C48" s="16">
+        <f>100*DATA!D63/DATA!C63</f>
+        <v>15.118572321901006</v>
+      </c>
+      <c r="D48" s="15">
+        <f>100*DATA!F63/DATA!C63</f>
+        <v>18.65602001058252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="str">
+        <f>DATA!B64</f>
+        <v>Pardubice</v>
+      </c>
+      <c r="B49" s="15">
+        <f>DATA!C64</f>
+        <v>169836</v>
+      </c>
+      <c r="C49" s="16">
+        <f>100*DATA!D64/DATA!C64</f>
+        <v>15.295343743375962</v>
+      </c>
+      <c r="D49" s="15">
+        <f>100*DATA!F64/DATA!C64</f>
+        <v>18.735721519583599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="str">
+        <f>DATA!B65</f>
+        <v>Svitavy</v>
+      </c>
+      <c r="B50" s="15">
+        <f>DATA!C65</f>
+        <v>104189</v>
+      </c>
+      <c r="C50" s="16">
+        <f>100*DATA!D65/DATA!C65</f>
+        <v>15.291441514939198</v>
+      </c>
+      <c r="D50" s="15">
+        <f>100*DATA!F65/DATA!C65</f>
+        <v>18.357984048220061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="str">
+        <f>DATA!B66</f>
+        <v>Ústí nad Orlicí</v>
+      </c>
+      <c r="B51" s="15">
+        <f>DATA!C66</f>
+        <v>138179</v>
+      </c>
+      <c r="C51" s="16">
+        <f>100*DATA!D66/DATA!C66</f>
+        <v>15.697754362095543</v>
+      </c>
+      <c r="D51" s="15">
+        <f>100*DATA!F66/DATA!C66</f>
+        <v>18.313926139283105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="str">
+        <f>DATA!B68</f>
+        <v>Havlíčkův Brod</v>
+      </c>
+      <c r="B52" s="15">
+        <f>DATA!C68</f>
+        <v>94649</v>
+      </c>
+      <c r="C52" s="16">
+        <f>100*DATA!D68/DATA!C68</f>
+        <v>14.940464241566207</v>
+      </c>
+      <c r="D52" s="15">
+        <f>100*DATA!F68/DATA!C68</f>
+        <v>19.213092584179442</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="str">
+        <f>DATA!B69</f>
+        <v>Jihlava</v>
+      </c>
+      <c r="B53" s="15">
+        <f>DATA!C69</f>
+        <v>112619</v>
+      </c>
+      <c r="C53" s="16">
+        <f>100*DATA!D69/DATA!C69</f>
+        <v>15.845461245438159</v>
+      </c>
+      <c r="D53" s="15">
+        <f>100*DATA!F69/DATA!C69</f>
+        <v>18.051128140011897</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="str">
+        <f>DATA!B70</f>
+        <v>Pelhřimov</v>
+      </c>
+      <c r="B54" s="15">
+        <f>DATA!C70</f>
+        <v>72061</v>
+      </c>
+      <c r="C54" s="16">
+        <f>100*DATA!D70/DATA!C70</f>
+        <v>14.265691566866959</v>
+      </c>
+      <c r="D54" s="15">
+        <f>100*DATA!F70/DATA!C70</f>
+        <v>20.149595481605861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="str">
+        <f>DATA!B71</f>
+        <v>Třebíč</v>
+      </c>
+      <c r="B55" s="15">
+        <f>DATA!C71</f>
+        <v>111873</v>
+      </c>
+      <c r="C55" s="16">
+        <f>100*DATA!D71/DATA!C71</f>
+        <v>14.598696736477971</v>
+      </c>
+      <c r="D55" s="15">
+        <f>100*DATA!F71/DATA!C71</f>
+        <v>18.419100229724776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="str">
+        <f>DATA!B72</f>
+        <v>Žďár nad Sázavou</v>
+      </c>
+      <c r="B56" s="15">
+        <f>DATA!C72</f>
+        <v>118273</v>
+      </c>
+      <c r="C56" s="16">
+        <f>100*DATA!D72/DATA!C72</f>
+        <v>15.323869353106796</v>
+      </c>
+      <c r="D56" s="15">
+        <f>100*DATA!F72/DATA!C72</f>
+        <v>18.281433632359033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="str">
+        <f>DATA!B74</f>
+        <v>Blansko</v>
+      </c>
+      <c r="B57" s="15">
+        <f>DATA!C74</f>
+        <v>108126</v>
+      </c>
+      <c r="C57" s="16">
+        <f>100*DATA!D74/DATA!C74</f>
+        <v>15.539278249449715</v>
+      </c>
+      <c r="D57" s="15">
+        <f>100*DATA!F74/DATA!C74</f>
+        <v>18.868727225644157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="str">
+        <f>DATA!B75</f>
+        <v>Brno-město</v>
+      </c>
+      <c r="B58" s="15">
+        <f>DATA!C75</f>
+        <v>377028</v>
+      </c>
+      <c r="C58" s="16">
+        <f>100*DATA!D75/DATA!C75</f>
+        <v>14.673976468591192</v>
+      </c>
+      <c r="D58" s="15">
+        <f>100*DATA!F75/DATA!C75</f>
+        <v>19.924249657850346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="str">
+        <f>DATA!B76</f>
+        <v>Brno-venkov</v>
+      </c>
+      <c r="B59" s="15">
+        <f>DATA!C76</f>
+        <v>215311</v>
+      </c>
+      <c r="C59" s="16">
+        <f>100*DATA!D76/DATA!C76</f>
+        <v>17.119422602653835</v>
+      </c>
+      <c r="D59" s="15">
+        <f>100*DATA!F76/DATA!C76</f>
+        <v>17.391122608691614</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="str">
+        <f>DATA!B77</f>
+        <v>Břeclav</v>
+      </c>
+      <c r="B60" s="15">
+        <f>DATA!C77</f>
+        <v>115334</v>
+      </c>
+      <c r="C60" s="16">
+        <f>100*DATA!D77/DATA!C77</f>
+        <v>14.622747845388178</v>
+      </c>
+      <c r="D60" s="15">
+        <f>100*DATA!F77/DATA!C77</f>
+        <v>17.858567291518547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="str">
+        <f>DATA!B78</f>
+        <v>Hodonín</v>
+      </c>
+      <c r="B61" s="15">
+        <f>DATA!C78</f>
+        <v>154873</v>
+      </c>
+      <c r="C61" s="16">
+        <f>100*DATA!D78/DATA!C78</f>
+        <v>13.971447573172858</v>
+      </c>
+      <c r="D61" s="15">
+        <f>100*DATA!F78/DATA!C78</f>
+        <v>18.458995434969296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="str">
+        <f>DATA!B79</f>
+        <v>Vyškov</v>
+      </c>
+      <c r="B62" s="15">
+        <f>DATA!C79</f>
+        <v>90815</v>
+      </c>
+      <c r="C62" s="16">
+        <f>100*DATA!D79/DATA!C79</f>
+        <v>15.707757529042558</v>
+      </c>
+      <c r="D62" s="15">
+        <f>100*DATA!F79/DATA!C79</f>
+        <v>17.570885866872214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="str">
+        <f>DATA!B80</f>
+        <v>Znojmo</v>
+      </c>
+      <c r="B63" s="15">
+        <f>DATA!C80</f>
+        <v>113538</v>
+      </c>
+      <c r="C63" s="16">
+        <f>100*DATA!D80/DATA!C80</f>
+        <v>15.11916715108598</v>
+      </c>
+      <c r="D63" s="15">
+        <f>100*DATA!F80/DATA!C80</f>
+        <v>17.757931265303245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="str">
+        <f>DATA!B82</f>
+        <v>Jeseník</v>
+      </c>
+      <c r="B64" s="15">
+        <f>DATA!C82</f>
+        <v>39261</v>
+      </c>
+      <c r="C64" s="16">
+        <f>100*DATA!D82/DATA!C82</f>
+        <v>14.029189271796438</v>
+      </c>
+      <c r="D64" s="15">
+        <f>100*DATA!F82/DATA!C82</f>
+        <v>18.896614961412087</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="str">
+        <f>DATA!B83</f>
+        <v>Olomouc</v>
+      </c>
+      <c r="B65" s="15">
+        <f>DATA!C83</f>
+        <v>233755</v>
+      </c>
+      <c r="C65" s="16">
+        <f>100*DATA!D83/DATA!C83</f>
+        <v>15.682231396119869</v>
+      </c>
+      <c r="D65" s="15">
+        <f>100*DATA!F83/DATA!C83</f>
+        <v>18.160467155782765</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="str">
+        <f>DATA!B84</f>
+        <v>Prostějov</v>
+      </c>
+      <c r="B66" s="15">
+        <f>DATA!C84</f>
+        <v>108793</v>
+      </c>
+      <c r="C66" s="16">
+        <f>100*DATA!D84/DATA!C84</f>
+        <v>15.26201134264153</v>
+      </c>
+      <c r="D66" s="15">
+        <f>100*DATA!F84/DATA!C84</f>
+        <v>19.066484056878661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="str">
+        <f>DATA!B85</f>
+        <v>Přerov</v>
+      </c>
+      <c r="B67" s="15">
+        <f>DATA!C85</f>
+        <v>131124</v>
+      </c>
+      <c r="C67" s="16">
+        <f>100*DATA!D85/DATA!C85</f>
+        <v>14.479424056618162</v>
+      </c>
+      <c r="D67" s="15">
+        <f>100*DATA!F85/DATA!C85</f>
+        <v>19.065159696165463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="str">
+        <f>DATA!B86</f>
+        <v>Šumperk</v>
+      </c>
+      <c r="B68" s="15">
+        <f>DATA!C86</f>
+        <v>121785</v>
+      </c>
+      <c r="C68" s="16">
+        <f>100*DATA!D86/DATA!C86</f>
+        <v>14.885248593833396</v>
+      </c>
+      <c r="D68" s="15">
+        <f>100*DATA!F86/DATA!C86</f>
+        <v>19.052428459990967</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="str">
+        <f>DATA!B88</f>
+        <v>Kroměříž</v>
+      </c>
+      <c r="B69" s="15">
+        <f>DATA!C88</f>
+        <v>106294</v>
+      </c>
+      <c r="C69" s="16">
+        <f>100*DATA!D88/DATA!C88</f>
+        <v>14.501288878017574</v>
+      </c>
+      <c r="D69" s="15">
+        <f>100*DATA!F88/DATA!C88</f>
+        <v>19.054697348862589</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="str">
+        <f>DATA!B89</f>
+        <v>Uherské Hradiště</v>
+      </c>
+      <c r="B70" s="15">
+        <f>DATA!C89</f>
+        <v>142830</v>
+      </c>
+      <c r="C70" s="16">
+        <f>100*DATA!D89/DATA!C89</f>
+        <v>14.360428481411468</v>
+      </c>
+      <c r="D70" s="15">
+        <f>100*DATA!F89/DATA!C89</f>
+        <v>18.95470139326472</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="str">
+        <f>DATA!B90</f>
+        <v>Vsetín</v>
+      </c>
+      <c r="B71" s="15">
+        <f>DATA!C90</f>
+        <v>143722</v>
+      </c>
+      <c r="C71" s="16">
+        <f>100*DATA!D90/DATA!C90</f>
+        <v>14.999095475988366</v>
+      </c>
+      <c r="D71" s="15">
+        <f>100*DATA!F90/DATA!C90</f>
+        <v>18.382711067199175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="str">
+        <f>DATA!B91</f>
+        <v>Zlín</v>
+      </c>
+      <c r="B72" s="15">
+        <f>DATA!C91</f>
+        <v>191830</v>
+      </c>
+      <c r="C72" s="16">
+        <f>100*DATA!D91/DATA!C91</f>
+        <v>14.68487723505187</v>
+      </c>
+      <c r="D72" s="15">
+        <f>100*DATA!F91/DATA!C91</f>
+        <v>18.954803732471458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="str">
+        <f>DATA!B93</f>
+        <v>Bruntál</v>
+      </c>
+      <c r="B73" s="15">
+        <f>DATA!C93</f>
+        <v>93718</v>
+      </c>
+      <c r="C73" s="16">
+        <f>100*DATA!D93/DATA!C93</f>
+        <v>14.450799206129025</v>
+      </c>
+      <c r="D73" s="15">
+        <f>100*DATA!F93/DATA!C93</f>
+        <v>18.399880492541453</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="str">
+        <f>DATA!B94</f>
+        <v>Frýdek-Místek</v>
+      </c>
+      <c r="B74" s="15">
+        <f>DATA!C94</f>
+        <v>213260</v>
+      </c>
+      <c r="C74" s="16">
+        <f>100*DATA!D94/DATA!C94</f>
+        <v>15.252743130451092</v>
+      </c>
+      <c r="D74" s="15">
+        <f>100*DATA!F94/DATA!C94</f>
+        <v>17.654975147707024</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="str">
+        <f>DATA!B95</f>
+        <v>Karviná</v>
+      </c>
+      <c r="B75" s="15">
+        <f>DATA!C95</f>
+        <v>253518</v>
+      </c>
+      <c r="C75" s="16">
+        <f>100*DATA!D95/DATA!C95</f>
+        <v>14.103929504019439</v>
+      </c>
+      <c r="D75" s="15">
+        <f>100*DATA!F95/DATA!C95</f>
+        <v>18.418021600044177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="str">
+        <f>DATA!B96</f>
+        <v>Nový Jičín</v>
+      </c>
+      <c r="B76" s="15">
+        <f>DATA!C96</f>
+        <v>151762</v>
+      </c>
+      <c r="C76" s="16">
+        <f>100*DATA!D96/DATA!C96</f>
+        <v>15.527602430120847</v>
+      </c>
+      <c r="D76" s="15">
+        <f>100*DATA!F96/DATA!C96</f>
+        <v>17.437171360419605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="str">
+        <f>DATA!B97</f>
+        <v>Opava</v>
+      </c>
+      <c r="B77" s="15">
+        <f>DATA!C97</f>
+        <v>176742</v>
+      </c>
+      <c r="C77" s="16">
+        <f>100*DATA!D97/DATA!C97</f>
+        <v>15.344966108791345</v>
+      </c>
+      <c r="D77" s="15">
+        <f>100*DATA!F97/DATA!C97</f>
+        <v>17.52215093186679</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="str">
+        <f>DATA!B98</f>
+        <v>Ostrava-město</v>
+      </c>
+      <c r="B78" s="15">
+        <f>DATA!C98</f>
+        <v>324311</v>
+      </c>
+      <c r="C78" s="16">
+        <f>100*DATA!D98/DATA!C98</f>
+        <v>14.723521558010676</v>
+      </c>
+      <c r="D78" s="15">
+        <f>100*DATA!F98/DATA!C98</f>
+        <v>18.525427752990186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="D79" s="15"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="D81" s="15"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="D82" s="15"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="D83" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1401,24 +2861,24 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1428,7 +2888,7 @@
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -3304,7 +4764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -3393,7 +4853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F115"/>
   <sheetViews>
